--- a/platform/service-supplier/src/main/resources/download/avtivity_goods.xlsx
+++ b/platform/service-supplier/src/main/resources/download/avtivity_goods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghi\IdeaProjects\mall-shop\platform\service-mobile\src\main\resources\dowload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghi\IdeaProjects\mall-shop\platform\service-supplier\src\main\resources\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75746BCA-A928-41FC-B6F1-F2621D786D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E778B64-1C8B-4C04-9052-E6E6264102BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="15330" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="435" windowWidth="22845" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,7 @@
   </si>
   <si>
     <t>销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -367,23 +368,26 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/platform/service-supplier/src/main/resources/download/avtivity_goods.xlsx
+++ b/platform/service-supplier/src/main/resources/download/avtivity_goods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghi\IdeaProjects\mall-shop\platform\service-supplier\src\main\resources\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E778B64-1C8B-4C04-9052-E6E6264102BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404C26FC-3701-4FE1-B06A-38EE634219BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="435" windowWidth="22845" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="1650" windowWidth="22845" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>sku</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选品控件表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书单模板id或者店铺分类id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类 1书单模板 2类目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,18 +377,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,6 +402,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
